--- a/inst/testdata/latlon/testpoints_2.xlsx
+++ b/inst/testdata/latlon/testpoints_2.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,97 +360,55 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>lat</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>lon</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>siteid</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>lat</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>lon</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>REGISTRY_ID</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PRIMARY_NAME</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>NAICS</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>SIC</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>PGM_SYS_ACRNMS</t>
+          <t>sitename</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2">
+        <v>43.45382</v>
+      </c>
+      <c r="B2">
+        <v>-96.43567</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>38.527149</v>
-      </c>
-      <c r="C2">
-        <v>-75.48255</v>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>110012157520</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
           <t>Example name for site 1</t>
         </is>
-      </c>
-      <c r="F2">
-        <v>722410</v>
-      </c>
-      <c r="G2">
-        <v>5992</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
+        <v>40.092881</v>
+      </c>
+      <c r="B3">
+        <v>-86.032678</v>
+      </c>
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>43.53689</v>
-      </c>
-      <c r="C3">
-        <v>-73.66824200000001</v>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>110020822671</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
           <t>Example name for site 2</t>
         </is>
-      </c>
-      <c r="F3">
-        <v>722410</v>
-      </c>
-      <c r="G3">
-        <v>5992</v>
       </c>
     </row>
   </sheetData>
